--- a/OCV.xlsx
+++ b/OCV.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Karel Van Peteghem\Documents\laatste jaar\MASTERPROEF batterijen; Karel\#Python_en_metingen\Meetverslag1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronique Thielman\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10365" windowHeight="5100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11620"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -395,12 +395,12 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -410,7 +410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -424,249 +424,315 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3.706</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>2.98</v>
+      </c>
       <c r="G3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.3370000000000002</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
+      <c r="E4">
+        <v>3.177</v>
+      </c>
       <c r="G4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3.3330000000000002</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
+      <c r="E5">
+        <v>3.2269999999999999</v>
+      </c>
       <c r="G5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3.331</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
+      <c r="E6">
+        <v>3.25</v>
+      </c>
       <c r="G6">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>3.33</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
+      <c r="E7">
+        <v>3.2730000000000001</v>
+      </c>
       <c r="G7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3.3290000000000002</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
+      <c r="E8">
+        <v>3.29</v>
+      </c>
       <c r="G8">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>3.3283999999999998</v>
       </c>
       <c r="C9">
         <v>30</v>
       </c>
+      <c r="E9">
+        <v>3.3010000000000002</v>
+      </c>
       <c r="G9">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3.3271999999999999</v>
       </c>
       <c r="C10">
         <v>35</v>
       </c>
+      <c r="E10">
+        <v>3.3079999999999998</v>
+      </c>
       <c r="G10">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3.3237000000000001</v>
       </c>
       <c r="C11">
         <v>40</v>
       </c>
+      <c r="E11">
+        <v>3.3109999999999999</v>
+      </c>
       <c r="G11">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3.3090000000000002</v>
       </c>
       <c r="C12">
         <v>45</v>
       </c>
+      <c r="E12">
+        <v>3.3119999999999998</v>
+      </c>
       <c r="G12">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3.2985000000000002</v>
       </c>
       <c r="C13">
         <v>50</v>
       </c>
+      <c r="E13">
+        <v>3.3140000000000001</v>
+      </c>
       <c r="G13">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>3.2949999999999999</v>
       </c>
       <c r="C14">
         <v>55</v>
       </c>
+      <c r="E14">
+        <v>3.3159999999999998</v>
+      </c>
       <c r="G14">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>3.2930000000000001</v>
       </c>
       <c r="C15">
         <v>60</v>
       </c>
+      <c r="E15">
+        <v>3.3170000000000002</v>
+      </c>
       <c r="G15">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>3.2913999999999999</v>
       </c>
       <c r="C16">
         <v>65</v>
       </c>
+      <c r="E16">
+        <v>3.319</v>
+      </c>
       <c r="G16">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>3.2913000000000001</v>
       </c>
       <c r="C17">
         <v>70</v>
       </c>
+      <c r="E17">
+        <v>3.3210000000000002</v>
+      </c>
       <c r="G17">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>3.2898000000000001</v>
       </c>
       <c r="C18">
         <v>75</v>
       </c>
+      <c r="E18">
+        <v>3.3239999999999998</v>
+      </c>
       <c r="G18">
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>3.2877999999999998</v>
       </c>
       <c r="C19">
         <v>80</v>
       </c>
+      <c r="E19">
+        <v>3.3279999999999998</v>
+      </c>
       <c r="G19">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>3.2852000000000001</v>
       </c>
       <c r="C20">
         <v>85</v>
       </c>
+      <c r="E20">
+        <v>3.3380000000000001</v>
+      </c>
       <c r="G20">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>3.2747000000000002</v>
       </c>
       <c r="C21">
         <v>90</v>
       </c>
+      <c r="E21">
+        <v>3.3450000000000002</v>
+      </c>
       <c r="G21">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>3.2589999999999999</v>
       </c>
       <c r="C22">
         <v>95</v>
       </c>
+      <c r="E22">
+        <v>3.347</v>
+      </c>
       <c r="G22">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>3.2490000000000001</v>
       </c>
       <c r="C23">
         <v>100</v>
       </c>
+      <c r="E23">
+        <v>3.3490000000000002</v>
+      </c>
       <c r="G23">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>3.2412000000000001</v>
       </c>
       <c r="C24">
         <v>105</v>
       </c>
+      <c r="E24">
+        <v>3.3519999999999999</v>
+      </c>
       <c r="G24">
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>3.2309999999999999</v>
       </c>
@@ -677,7 +743,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>3.2172000000000001</v>
       </c>
@@ -688,7 +754,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3.1983000000000001</v>
       </c>
@@ -699,7 +765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>3.1673</v>
       </c>
@@ -710,7 +776,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>3.0419999999999998</v>
       </c>
@@ -721,7 +787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2.8</v>
       </c>
